--- a/day 3/HR Delta.xlsx
+++ b/day 3/HR Delta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training Presentations\SAC\SAC Batch\Session 05 BI in SAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Corporate Trainings\Mar 2022\EY_SAC_Feb2022\day 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E6B6F-914B-4FC0-9DAF-4FD9AC1300C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BA5A6AD-4900-4FE1-9057-91C8DFB9494C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Employee ID</t>
   </si>
@@ -154,24 +154,6 @@
   </si>
   <si>
     <t>Mumbai</t>
-  </si>
-  <si>
-    <t>$45689 USD</t>
-  </si>
-  <si>
-    <t>$59686 USD</t>
-  </si>
-  <si>
-    <t>$47859 USD</t>
-  </si>
-  <si>
-    <t>$70154 USD</t>
-  </si>
-  <si>
-    <t>$89562 USD</t>
-  </si>
-  <si>
-    <t>$61256 USD</t>
   </si>
 </sst>
 </file>
@@ -534,7 +516,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,8 +606,8 @@
       <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>42</v>
+      <c r="L2" s="1">
+        <v>45689</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -662,8 +644,8 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>43</v>
+      <c r="L3" s="1">
+        <v>59686</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -700,8 +682,8 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>44</v>
+      <c r="L4" s="1">
+        <v>47859</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -738,8 +720,8 @@
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
+      <c r="L5" s="1">
+        <v>70154</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -776,8 +758,8 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>46</v>
+      <c r="L6" s="1">
+        <v>89562</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -814,8 +796,8 @@
       <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>47</v>
+      <c r="L7" s="1">
+        <v>61256</v>
       </c>
     </row>
   </sheetData>
@@ -827,6 +809,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7DE90DB6C131F4E9044520B07FB8E93" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="44885bc9fbbeeb22b87f03366fff06ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fc415055-6b3f-4f9e-906a-f5e96bb553bf" xmlns:ns3="8249cdca-06d6-4f3a-9e96-7e8a43989d5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d032565203d74b74956c751073642c4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1040,25 +1040,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33890229-3D0D-46C3-A471-B4106E083A5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA10122-3ADF-43F7-BA70-141C6F7B6CCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D921E1-DF97-49B8-9DA3-A8AB4DCEE159}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1076,22 +1076,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA10122-3ADF-43F7-BA70-141C6F7B6CCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33890229-3D0D-46C3-A471-B4106E083A5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>